--- a/pwbi/Risultati/namespalle.xlsx
+++ b/pwbi/Risultati/namespalle.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{13790C6A-D917-4DD0-BD42-A28E5963C68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2834967E-BACB-4F9E-AD84-FAA0FC276820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataspalle" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Object ID</t>
   </si>
@@ -226,13 +226,16 @@
     <t>ff3c4789f320cd221a9dc7a809c5a71d</t>
   </si>
   <si>
-    <t>Spalle</t>
+    <t>Spalle 1</t>
+  </si>
+  <si>
+    <t>Spalle 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1066,7 +1069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1398,7 +1401,7 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">

--- a/pwbi/Risultati/namespalle.xlsx
+++ b/pwbi/Risultati/namespalle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2834967E-BACB-4F9E-AD84-FAA0FC276820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF88346-A46E-4F78-B0FA-B7B447E3E265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Object ID</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Spalle 2</t>
+  </si>
+  <si>
+    <t>BEAM</t>
   </si>
 </sst>
 </file>
@@ -1073,87 +1076,90 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
